--- a/SampleScene坐标记录.xlsx
+++ b/SampleScene坐标记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\graduationProject\project\testProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C5C147-745B-48E9-9486-D7E7E38E91D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC8B7C-87CE-49A4-953A-419D66FE26BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>YMOVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,9 +530,30 @@
     </row>
     <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>-3.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
     <row r="10" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
